--- a/MatLAB/Datalogging/Turn Test/circuit_1_180deg.xlsx
+++ b/MatLAB/Datalogging/Turn Test/circuit_1_180deg.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\Racecar-Control-Firmware\MatLAB\Datalogging\Turn Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danie\Desktop\Racecar-Control-Firmware\MatLAB\Datalogging\Turn Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66E13868-DA3F-45FA-A541-212398167A2A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEC5C11-D7CE-4B24-9715-2B753477FADE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{6CAD447D-F283-4497-A26B-417F4E9F1C7E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12372" xr2:uid="{6CAD447D-F283-4497-A26B-417F4E9F1C7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>Corner</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Test #4</t>
   </si>
   <si>
-    <t>Test #5</t>
+    <t>THRESHHOLD 122</t>
   </si>
 </sst>
 </file>
@@ -145,6 +145,10 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -153,10 +157,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -176,9 +176,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kontor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -216,7 +216,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kontor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -322,7 +322,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kontor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,25 +472,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6363E717-904E-40BE-A379-78003E5BA37D}">
-  <dimension ref="A2:J55"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="A2" sqref="A2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="10.7109375" customWidth="1"/>
+    <col min="1" max="4" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
       <c r="H2">
         <f>4*35/1.92</f>
         <v>72.916666666666671</v>
@@ -504,7 +509,7 @@
         <v>54.166666666666671</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +522,7 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H3">
@@ -533,7 +538,7 @@
         <v>91.145833333333343</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -541,15 +546,15 @@
         <v>73</v>
       </c>
       <c r="C4" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1">
         <f>C4-B4</f>
-        <v>6</v>
-      </c>
-      <c r="E4" s="6">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3">
         <f>C5-C4</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H4">
         <f>5*35/1.92</f>
@@ -564,7 +569,7 @@
         <v>54.166666666666686</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -572,13 +577,13 @@
         <v>127</v>
       </c>
       <c r="C5" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D11" si="2">C5-B5</f>
-        <v>12</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="E5" s="3"/>
       <c r="H5">
         <f>4*26/1.92</f>
         <v>54.166666666666671</v>
@@ -592,7 +597,7 @@
         <v>18.229166666666686</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -600,15 +605,15 @@
         <v>218</v>
       </c>
       <c r="C6" s="1">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="E6" s="6">
-        <f t="shared" ref="E6:E11" si="3">C7-C6</f>
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" ref="E6" si="3">C7-C6</f>
+        <v>61</v>
       </c>
       <c r="H6">
         <f>1*35/1.92</f>
@@ -623,7 +628,7 @@
         <v>72.916666666666686</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -631,13 +636,13 @@
         <v>272</v>
       </c>
       <c r="C7" s="1">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="E7" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="E7" s="3"/>
       <c r="H7">
         <f>4*35/1.92</f>
         <v>72.916666666666671</v>
@@ -651,7 +656,7 @@
         <v>54.166666666666686</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -659,15 +664,15 @@
         <v>363</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="D8" s="1">
         <f>C8-B8</f>
-        <v>-363</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" ref="E8:E11" si="4">C9-C8</f>
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" ref="E8" si="4">C9-C8</f>
+        <v>58</v>
       </c>
       <c r="H8">
         <f>4*26/1.92</f>
@@ -682,7 +687,7 @@
         <v>91.145833333333314</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -690,13 +695,13 @@
         <v>418</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="2"/>
-        <v>-418</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="E9" s="3"/>
       <c r="H9">
         <f>5*35/1.92</f>
         <v>91.145833333333343</v>
@@ -710,7 +715,7 @@
         <v>54.166666666666629</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -718,15 +723,15 @@
         <v>509</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>521</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="2"/>
-        <v>-509</v>
-      </c>
-      <c r="E10" s="6">
-        <f t="shared" ref="E10:E11" si="5">C11-C10</f>
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" ref="E10" si="5">C11-C10</f>
+        <v>59</v>
       </c>
       <c r="H10">
         <f>4*26/1.92</f>
@@ -741,7 +746,7 @@
         <v>18.229166666666629</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -749,13 +754,13 @@
         <v>563</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="2"/>
-        <v>-563</v>
-      </c>
-      <c r="E11" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="H11">
         <f>1*35/1.92</f>
         <v>18.229166666666668</v>
@@ -769,7 +774,7 @@
         <v>72.916666666666629</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H12">
         <f>4*35/1.92</f>
         <v>72.916666666666671</v>
@@ -783,14 +788,14 @@
         <v>54.166666666666629</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
       <c r="H13">
         <f>4*26/1.92</f>
         <v>54.166666666666671</v>
@@ -804,7 +809,7 @@
         <v>91.145833333333371</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,7 +822,7 @@
       <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H14">
@@ -833,7 +838,7 @@
         <v>54.166666666666629</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -841,15 +846,15 @@
         <v>73</v>
       </c>
       <c r="C15" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D15" s="1">
         <f>C15-B15</f>
-        <v>6</v>
-      </c>
-      <c r="E15" s="6">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3">
         <f>C16-C15</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15">
         <f>4*26/1.92</f>
@@ -864,7 +869,7 @@
         <v>18.229166666666629</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -875,10 +880,10 @@
         <v>139</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" ref="D16:D22" si="7">C16-B16</f>
+        <f t="shared" ref="D16:D18" si="7">C16-B16</f>
         <v>12</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="3"/>
       <c r="H16">
         <f>1*35/1.92</f>
         <v>18.229166666666668</v>
@@ -892,7 +897,7 @@
         <v>72.916666666666629</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -900,14 +905,14 @@
         <v>218</v>
       </c>
       <c r="C17" s="1">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="E17" s="6">
-        <f t="shared" ref="E17:E22" si="8">C18-C17</f>
+        <v>9</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" ref="E17" si="8">C18-C17</f>
         <v>60</v>
       </c>
       <c r="H17">
@@ -923,7 +928,7 @@
         <v>54.166666666666629</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -931,13 +936,13 @@
         <v>272</v>
       </c>
       <c r="C18" s="1">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="E18" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="E18" s="3"/>
       <c r="H18">
         <f>4*26/1.92</f>
         <v>54.166666666666671</v>
@@ -951,7 +956,7 @@
         <v>91.145833333333371</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -959,15 +964,15 @@
         <v>363</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="D19" s="1">
         <f>C19-B19</f>
-        <v>-363</v>
-      </c>
-      <c r="E19" s="6">
-        <f t="shared" ref="E19:E22" si="9">C20-C19</f>
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" ref="E19" si="9">C20-C19</f>
+        <v>58</v>
       </c>
       <c r="H19">
         <f>5*35/1.92</f>
@@ -982,7 +987,7 @@
         <v>54.166666666666742</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>6</v>
       </c>
@@ -990,13 +995,13 @@
         <v>418</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" ref="D20:D22" si="10">C20-B20</f>
-        <v>-418</v>
-      </c>
-      <c r="E20" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="E20" s="3"/>
       <c r="H20">
         <f>4*26/1.92</f>
         <v>54.166666666666671</v>
@@ -1010,7 +1015,7 @@
         <v>18.229166666666742</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>7</v>
       </c>
@@ -1018,15 +1023,15 @@
         <v>509</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>521</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="10"/>
-        <v>-509</v>
-      </c>
-      <c r="E21" s="6">
-        <f t="shared" ref="E21:E22" si="12">C22-C21</f>
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" ref="E21" si="12">C22-C21</f>
+        <v>59</v>
       </c>
       <c r="H21">
         <f>1*35/1.92</f>
@@ -1037,7 +1042,7 @@
         <v>1162.5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -1045,24 +1050,24 @@
         <v>563</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="10"/>
-        <v>-563</v>
-      </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,11 +1080,11 @@
       <c r="D25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -1093,12 +1098,12 @@
         <f>C26-B26</f>
         <v>6</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="3">
         <f>C27-C26</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -1106,15 +1111,15 @@
         <v>127</v>
       </c>
       <c r="C27" s="1">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" ref="D27:D33" si="13">C27-B27</f>
-        <v>12</v>
-      </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D27:D29" si="13">C27-B27</f>
+        <v>9</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -1122,18 +1127,18 @@
         <v>218</v>
       </c>
       <c r="C28" s="1">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="E28" s="6">
-        <f t="shared" ref="E28:E33" si="14">C29-C28</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" ref="E28" si="14">C29-C28</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>4</v>
       </c>
@@ -1141,15 +1146,15 @@
         <v>272</v>
       </c>
       <c r="C29" s="1">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="13"/>
-        <v>14</v>
-      </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>5</v>
       </c>
@@ -1157,18 +1162,18 @@
         <v>363</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="D30" s="1">
         <f>C30-B30</f>
-        <v>-363</v>
-      </c>
-      <c r="E30" s="6">
-        <f t="shared" ref="E30:E33" si="15">C31-C30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" ref="E30" si="15">C31-C30</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>6</v>
       </c>
@@ -1176,15 +1181,15 @@
         <v>418</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" ref="D31:D33" si="16">C31-B31</f>
-        <v>-418</v>
-      </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>7</v>
       </c>
@@ -1192,18 +1197,18 @@
         <v>509</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="16"/>
-        <v>-509</v>
-      </c>
-      <c r="E32" s="6">
-        <f t="shared" ref="E32:E33" si="17">C33-C32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" ref="E32" si="17">C33-C32</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>8</v>
       </c>
@@ -1211,24 +1216,24 @@
         <v>563</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="16"/>
-        <v>-563</v>
-      </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1241,11 +1246,11 @@
       <c r="D36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -1253,18 +1258,18 @@
         <v>73</v>
       </c>
       <c r="C37" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D37" s="1">
         <f>C37-B37</f>
-        <v>6</v>
-      </c>
-      <c r="E37" s="6">
+        <v>5</v>
+      </c>
+      <c r="E37" s="3">
         <f>C38-C37</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -1272,15 +1277,15 @@
         <v>127</v>
       </c>
       <c r="C38" s="1">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" ref="D38:D44" si="18">C38-B38</f>
-        <v>12</v>
-      </c>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D38:D40" si="18">C38-B38</f>
+        <v>8</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>3</v>
       </c>
@@ -1288,18 +1293,18 @@
         <v>218</v>
       </c>
       <c r="C39" s="1">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="E39" s="6">
-        <f t="shared" ref="E39:E44" si="19">C40-C39</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" ref="E39" si="19">C40-C39</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>4</v>
       </c>
@@ -1307,15 +1312,15 @@
         <v>272</v>
       </c>
       <c r="C40" s="1">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="18"/>
-        <v>14</v>
-      </c>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>5</v>
       </c>
@@ -1323,18 +1328,18 @@
         <v>363</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="D41" s="1">
         <f>C41-B41</f>
-        <v>-363</v>
-      </c>
-      <c r="E41" s="6">
-        <f t="shared" ref="E41:E44" si="20">C42-C41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" ref="E41" si="20">C42-C41</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>6</v>
       </c>
@@ -1342,15 +1347,15 @@
         <v>418</v>
       </c>
       <c r="C42" s="1">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" ref="D42:D44" si="21">C42-B42</f>
-        <v>-418</v>
-      </c>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>7</v>
       </c>
@@ -1358,18 +1363,18 @@
         <v>509</v>
       </c>
       <c r="C43" s="1">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="21"/>
-        <v>-509</v>
-      </c>
-      <c r="E43" s="6">
-        <f t="shared" ref="E43:E44" si="22">C44-C43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" ref="E43" si="22">C44-C43</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>8</v>
       </c>
@@ -1377,182 +1382,102 @@
         <v>563</v>
       </c>
       <c r="C44" s="1">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="21"/>
-        <v>-563</v>
-      </c>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>1</v>
-      </c>
-      <c r="B48" s="1">
-        <v>73</v>
-      </c>
-      <c r="C48" s="1">
-        <v>79</v>
-      </c>
-      <c r="D48" s="1">
-        <f>C48-B48</f>
-        <v>6</v>
-      </c>
-      <c r="E48" s="6">
-        <f>C49-C48</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>2</v>
-      </c>
-      <c r="B49" s="1">
-        <v>127</v>
-      </c>
-      <c r="C49" s="1">
-        <v>139</v>
-      </c>
-      <c r="D49" s="1">
-        <f t="shared" ref="D49:D55" si="23">C49-B49</f>
         <v>12</v>
       </c>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>3</v>
-      </c>
-      <c r="B50" s="1">
-        <v>218</v>
-      </c>
-      <c r="C50" s="1">
-        <v>226</v>
-      </c>
-      <c r="D50" s="1">
-        <f t="shared" si="23"/>
-        <v>8</v>
-      </c>
-      <c r="E50" s="6">
-        <f t="shared" ref="E50:E55" si="24">C51-C50</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>4</v>
-      </c>
-      <c r="B51" s="1">
-        <v>272</v>
-      </c>
-      <c r="C51" s="1">
-        <v>286</v>
-      </c>
-      <c r="D51" s="1">
-        <f t="shared" si="23"/>
-        <v>14</v>
-      </c>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>5</v>
-      </c>
-      <c r="B52" s="1">
-        <v>363</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1">
-        <f>C52-B52</f>
-        <v>-363</v>
-      </c>
-      <c r="E52" s="6">
-        <f t="shared" ref="E52:E55" si="25">C53-C52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>6</v>
-      </c>
-      <c r="B53" s="1">
-        <v>418</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1">
-        <f t="shared" ref="D53:D55" si="26">C53-B53</f>
-        <v>-418</v>
-      </c>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>7</v>
-      </c>
-      <c r="B54" s="1">
-        <v>509</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1">
-        <f t="shared" si="26"/>
-        <v>-509</v>
-      </c>
-      <c r="E54" s="6">
-        <f t="shared" ref="E54:E55" si="27">C55-C54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>8</v>
-      </c>
-      <c r="B55" s="1">
-        <v>563</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1">
-        <f t="shared" si="26"/>
-        <v>-563</v>
-      </c>
-      <c r="E55" s="6"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="B35:E35"/>
     <mergeCell ref="E48:E49"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="E52:E53"/>
@@ -1562,22 +1487,6 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="E43:E44"/>
     <mergeCell ref="B46:E46"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
